--- a/ICESS2017/evaluation/Adapter.xlsx
+++ b/ICESS2017/evaluation/Adapter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,39 +13,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$317</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$371</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$371</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$C$371</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$371</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$371</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$371</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$371</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$371</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$2:$A$371</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$2:$B$371</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$2:$C$371</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$371</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2:$D$371</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$371</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$371</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$371</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,22 +124,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -174,7 +149,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{25A90DED-2B23-4E2A-8148-46DC28E2AEC0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>tcp_rcv_dat</cx:v>
             </cx:txData>
           </cx:tx>
@@ -187,7 +162,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8E301ACF-7DB1-4716-9E24-DB666295D3DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>tcp_rcv_dat [Adapter]</cx:v>
             </cx:txData>
           </cx:tx>
@@ -200,7 +175,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4D75B551-3B71-41A3-94F9-9146F0EA218D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>tcp_snd_dat</cx:v>
             </cx:txData>
           </cx:tx>
@@ -213,7 +188,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{87AD09F3-481B-4F42-86D6-0DF3A9336841}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>tcp_snd_dat [Adapter]</cx:v>
             </cx:txData>
           </cx:tx>
@@ -237,22 +212,88 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Execution time [ms]</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>Execution time [us]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="ja-JP" sz="2800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
               </a:p>
             </cx:rich>
           </cx:tx>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0"/>
+    <cx:legend pos="r" align="min" overlay="1">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -787,16 +828,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1121,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
